--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2540980.972953294</v>
+        <v>2538585.316948114</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504415</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>253.0580128112732</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>256.8748302576012</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>74.03593649474</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>127.1253009183549</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>221.1114626779159</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>24.84010761051794</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>6.96493952600193</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>145.3427913685728</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>167.4712604670899</v>
       </c>
       <c r="C8" t="n">
-        <v>252.5864928415229</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7642623540624</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>60.96427570692273</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>157.1838954824118</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766851</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428213</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060142</v>
       </c>
     </row>
     <row r="29">
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>93.40444476188321</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1439.787835839972</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="C2" t="n">
-        <v>1070.825318899561</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="D2" t="n">
-        <v>712.5596202928102</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="E2" t="n">
-        <v>326.771367694566</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="F2" t="n">
-        <v>319.8258669453625</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>307.4140096776412</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>233.2861766793353</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974718</v>
+        <v>395.0811887443308</v>
       </c>
       <c r="L2" t="n">
-        <v>846.2214751156638</v>
+        <v>1036.104398364225</v>
       </c>
       <c r="M2" t="n">
-        <v>1142.292041673267</v>
+        <v>1332.174964921828</v>
       </c>
       <c r="N2" t="n">
-        <v>1646.417767912933</v>
+        <v>1973.198174541722</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532827</v>
+        <v>2248.314393858356</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2448.618721147459</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466515</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="V2" t="n">
-        <v>2589.992766140986</v>
+        <v>1905.178892734175</v>
       </c>
       <c r="W2" t="n">
-        <v>2589.992766140986</v>
+        <v>1645.709367221447</v>
       </c>
       <c r="X2" t="n">
-        <v>2216.527007879906</v>
+        <v>1272.243608960367</v>
       </c>
       <c r="Y2" t="n">
-        <v>1826.387675904094</v>
+        <v>882.1042769845554</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093821</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4413,19 +4413,19 @@
         <v>460.3590590626825</v>
       </c>
       <c r="L3" t="n">
-        <v>1037.081874165938</v>
+        <v>979.247108262399</v>
       </c>
       <c r="M3" t="n">
-        <v>1301.021405661426</v>
+        <v>1620.270317882293</v>
       </c>
       <c r="N3" t="n">
-        <v>1586.355276094759</v>
+        <v>1905.604188315626</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972037</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020795</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4443,7 +4443,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>908.7612653873531</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="C4" t="n">
-        <v>739.8250824594462</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="D4" t="n">
-        <v>589.7084430471104</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>441.7953494647173</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>294.9054019668069</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>126.5836295599308</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
         <v>51.79985532281972</v>
@@ -4486,7 +4486,7 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4510,28 +4510,28 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>991.0700018628692</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361123</v>
+        <v>511.9743544324203</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.202309361123</v>
+        <v>383.5649595653952</v>
       </c>
       <c r="X4" t="n">
-        <v>1311.202309361123</v>
+        <v>383.5649595653952</v>
       </c>
       <c r="Y4" t="n">
-        <v>1090.409730217593</v>
+        <v>383.5649595653952</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>293.7317056273618</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="C5" t="n">
-        <v>70.38679383148718</v>
+        <v>950.7969384077089</v>
       </c>
       <c r="D5" t="n">
-        <v>70.38679383148718</v>
+        <v>950.7969384077089</v>
       </c>
       <c r="E5" t="n">
-        <v>70.38679383148718</v>
+        <v>565.0086858094646</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228371</v>
+        <v>558.0631850602612</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>142.3813432603931</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2381.347406599813</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2127.76817854206</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V5" t="n">
-        <v>1796.705291198489</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="W5" t="n">
-        <v>1443.936635928375</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="X5" t="n">
-        <v>1070.470877667295</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="Y5" t="n">
-        <v>680.3315456914836</v>
+        <v>1319.759455348121</v>
       </c>
     </row>
     <row r="6">
@@ -4647,25 +4647,25 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>531.0821020829401</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>828.3940511992548</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1194.69994069158</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1835.723150311474</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2170.651831027005</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>538.8288664011729</v>
+        <v>375.6844242836268</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8926834732661</v>
+        <v>206.7482413557198</v>
       </c>
       <c r="D7" t="n">
-        <v>219.7760440609304</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E7" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
         <v>51.79985532281972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1450.534004159847</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1450.534004159847</v>
+        <v>1321.927733452885</v>
       </c>
       <c r="U7" t="n">
-        <v>1450.534004159847</v>
+        <v>1032.809956463283</v>
       </c>
       <c r="V7" t="n">
-        <v>1195.84951595396</v>
+        <v>778.1254682573966</v>
       </c>
       <c r="W7" t="n">
-        <v>906.4323459169989</v>
+        <v>778.1254682573966</v>
       </c>
       <c r="X7" t="n">
-        <v>759.6214455447031</v>
+        <v>778.1254682573966</v>
       </c>
       <c r="Y7" t="n">
-        <v>538.8288664011729</v>
+        <v>557.3328891138665</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1473.61902063398</v>
+        <v>1652.934136166469</v>
       </c>
       <c r="C8" t="n">
-        <v>1218.481149076886</v>
+        <v>1283.971619226057</v>
       </c>
       <c r="D8" t="n">
-        <v>860.2154504701355</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="E8" t="n">
-        <v>474.4271978718913</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K8" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
         <v>2568.493631507462</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140986</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="W8" t="n">
-        <v>2237.224110870871</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="X8" t="n">
-        <v>1863.758352609791</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="Y8" t="n">
-        <v>1473.61902063398</v>
+        <v>1822.097025527166</v>
       </c>
     </row>
     <row r="9">
@@ -4866,16 +4866,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
@@ -4884,22 +4884,22 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431335</v>
+        <v>688.5974568552863</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594483</v>
+        <v>985.909405971601</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1352.215295463926</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.4514170392433</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="C10" t="n">
-        <v>303.5152341113364</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="D10" t="n">
-        <v>303.5152341113364</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="E10" t="n">
-        <v>155.6021405289433</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G10" t="n">
         <v>51.79985532281972</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1585.403593682239</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1388.953927688207</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1166.019353230189</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>876.901576240587</v>
       </c>
       <c r="V10" t="n">
-        <v>1392.299181947991</v>
+        <v>622.2170880347002</v>
       </c>
       <c r="W10" t="n">
-        <v>1102.882011911031</v>
+        <v>622.2170880347002</v>
       </c>
       <c r="X10" t="n">
-        <v>874.8924610130132</v>
+        <v>622.2170880347002</v>
       </c>
       <c r="Y10" t="n">
-        <v>654.0998818694831</v>
+        <v>401.42450889117</v>
       </c>
     </row>
     <row r="11">
@@ -5045,22 +5045,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,13 +5525,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5598,7 +5598,7 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
         <v>1520.445529061503</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2313.46766635706</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2546.729326731942</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,37 +5975,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6786,19 +6786,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597624</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597624</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,22 +7257,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7448,10 +7448,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7637,37 +7637,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>108.4711649417293</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.4751802037395</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>200.6571919233144</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
-        <v>369.6030205083429</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>312.4213898453389</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.892604166067</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>214.0881678038578</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>105.3588180506127</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>253.1450992870219</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740404</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>119.375975097311</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-1.217248922758014e-12</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>61.40075786968296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194272</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393022</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814934</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25163,7 +25163,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>72.11969353038563</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.37164482</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448194</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448194</v>
-      </c>
       <c r="E2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597545</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="K2" t="n">
-        <v>625538.6147597545</v>
-      </c>
       <c r="L2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597547</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
         <v>172764.3597898923</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.0168260482</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151598</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695035</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695034</v>
+        <v>6287.480531695116</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695035</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695024</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695042</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695022</v>
+        <v>6287.480531695053</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695053</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695028</v>
+        <v>6287.480531695064</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-552506.4779427296</v>
+        <v>-552506.4779427295</v>
       </c>
       <c r="C6" t="n">
-        <v>240995.1677681695</v>
+        <v>240995.1677681701</v>
       </c>
       <c r="D6" t="n">
-        <v>413759.5275580618</v>
+        <v>413759.5275580622</v>
       </c>
       <c r="E6" t="n">
-        <v>17239.73665840205</v>
+        <v>17204.99873296595</v>
       </c>
       <c r="F6" t="n">
-        <v>518128.6044041525</v>
+        <v>518093.866478717</v>
       </c>
       <c r="G6" t="n">
-        <v>518128.6044041521</v>
+        <v>518093.8664787168</v>
       </c>
       <c r="H6" t="n">
-        <v>518128.6044041525</v>
+        <v>518093.8664787169</v>
       </c>
       <c r="I6" t="n">
-        <v>518128.6044041523</v>
+        <v>518093.866478717</v>
       </c>
       <c r="J6" t="n">
-        <v>348714.5875781045</v>
+        <v>348679.8496526688</v>
       </c>
       <c r="K6" t="n">
-        <v>518128.6044041523</v>
+        <v>518093.8664787168</v>
       </c>
       <c r="L6" t="n">
-        <v>518128.6044041523</v>
+        <v>518093.866478717</v>
       </c>
       <c r="M6" t="n">
-        <v>387244.1474999174</v>
+        <v>387209.4095744817</v>
       </c>
       <c r="N6" t="n">
-        <v>518128.6044041525</v>
+        <v>518093.8664787167</v>
       </c>
       <c r="O6" t="n">
-        <v>518128.6044041527</v>
+        <v>518093.8664787171</v>
       </c>
       <c r="P6" t="n">
-        <v>518128.6044041525</v>
+        <v>518093.8664787168</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,13 +26805,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,22 +26966,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>55.53943263823805</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>92.36613845981179</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>76.16695116918051</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
         <v>114.7793764994862</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>159.3976974182361</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>144.1614290930917</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>275.9461796379418</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>141.6505334922104</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>80.36686402046431</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>215.2625811963906</v>
       </c>
       <c r="C8" t="n">
-        <v>112.6863989294847</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>42.65678566886889</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>40.13587291362168</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31525,37 +31525,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31619,19 +31619,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31677,25 +31677,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,10 +31850,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,7 +31862,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,28 +32075,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>270.4557004614709</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>152.0754244981384</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>314.3020503687028</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,25 +33257,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>543.0832917018706</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,34 +33977,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>183.3195165217329</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873218</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M2" t="n">
         <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>509.2179052925925</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O2" t="n">
-        <v>647.4981915352464</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
         <v>202.3276033223266</v>
@@ -34720,7 +34720,7 @@
         <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>524.1293426259763</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
         <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>455.3052907851293</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34951,7 +34951,7 @@
         <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510065</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342475</v>
@@ -35015,7 +35015,7 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>293.9057770437568</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35024,7 +35024,7 @@
         <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O6" t="n">
         <v>338.3117987025566</v>
@@ -35033,10 +35033,10 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671845</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
@@ -35261,16 +35261,16 @@
         <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>513.7290673455356</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,10 +35337,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35349,7 +35349,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,10 +35498,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899066</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>136.4812930471406</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>6.395920534174421</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>171.7058059242583</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36601,7 +36601,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193518</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
         <v>632.079992146269</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>409.1088842875403</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
